--- a/public/assets/downloads/excel/Excel_Full_Formulas_Practice.xlsx
+++ b/public/assets/downloads/excel/Excel_Full_Formulas_Practice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\React Project\react_routing_tailwind\public\assets\downloads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C75ED76-7B7A-461A-BAC1-048D62FC65C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6E408-C7F7-479C-B61F-02E0A450282E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,7 +568,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +673,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="88C6" sheet="1"/>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D10"/>
